--- a/Financials/Quarterly/BHP_QTR_FIN.xlsx
+++ b/Financials/Quarterly/BHP_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AD0018-2898-4758-9A99-B1BA1CBF7B0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BHP" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>BHP</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,90 +689,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>43638000</v>
+        <v>20742000</v>
       </c>
       <c r="E8" s="3">
-        <v>21779000</v>
+        <v>22603000</v>
       </c>
       <c r="F8" s="3">
+        <v>20526000</v>
+      </c>
+      <c r="G8" s="3">
         <v>36135000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>18796000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12855000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15712000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19776000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24860000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,8 +806,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -794,8 +838,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -807,8 +854,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -836,8 +884,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,8 +916,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -894,8 +948,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -923,8 +980,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +993,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27642000</v>
+        <v>13409000</v>
       </c>
       <c r="E17" s="3">
-        <v>15043000</v>
+        <v>13772000</v>
       </c>
       <c r="F17" s="3">
+        <v>13361000</v>
+      </c>
+      <c r="G17" s="3">
         <v>23581000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12739000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3021000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22742000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19036000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16930000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>15996000</v>
+        <v>7333000</v>
       </c>
       <c r="E18" s="3">
-        <v>6736000</v>
+        <v>8831000</v>
       </c>
       <c r="F18" s="3">
+        <v>7165000</v>
+      </c>
+      <c r="G18" s="3">
         <v>12554000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6057000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9834000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7030000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>740000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7930000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,153 +1071,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-216000</v>
+        <v>41000</v>
       </c>
       <c r="E20" s="3">
-        <v>-171000</v>
+        <v>-27000</v>
       </c>
       <c r="F20" s="3">
+        <v>-130000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-72000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-175000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-41000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-140000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>22068000</v>
+        <v>10262000</v>
       </c>
       <c r="E21" s="3">
-        <v>10602000</v>
+        <v>11886000</v>
       </c>
       <c r="F21" s="3">
+        <v>10241000</v>
+      </c>
+      <c r="G21" s="3">
         <v>18338000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9785000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11267000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2469000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5357000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12260000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1029000</v>
+        <v>574000</v>
       </c>
       <c r="E22" s="3">
-        <v>499000</v>
+        <v>560000</v>
       </c>
       <c r="F22" s="3">
+        <v>528000</v>
+      </c>
+      <c r="G22" s="3">
         <v>1017000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>505000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>409000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>388000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>240000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>163000</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>14751000</v>
+        <v>6800000</v>
       </c>
       <c r="E23" s="3">
-        <v>6066000</v>
+        <v>8244000</v>
       </c>
       <c r="F23" s="3">
+        <v>6507000</v>
+      </c>
+      <c r="G23" s="3">
         <v>11137000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5480000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9250000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7459000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>360000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7696000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4687000</v>
+        <v>2358000</v>
       </c>
       <c r="E24" s="3">
-        <v>1664000</v>
+        <v>2906000</v>
       </c>
       <c r="F24" s="3">
+        <v>1781000</v>
+      </c>
+      <c r="G24" s="3">
         <v>4443000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2028000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3829000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1726000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>362000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3304000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1261,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10064000</v>
+        <v>4442000</v>
       </c>
       <c r="E26" s="3">
-        <v>4402000</v>
+        <v>5338000</v>
       </c>
       <c r="F26" s="3">
+        <v>4726000</v>
+      </c>
+      <c r="G26" s="3">
         <v>6694000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3452000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5421000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5733000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4392000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8946000</v>
+        <v>4057000</v>
       </c>
       <c r="E27" s="3">
-        <v>3843000</v>
+        <v>4779000</v>
       </c>
       <c r="F27" s="3">
+        <v>4167000</v>
+      </c>
+      <c r="G27" s="3">
         <v>6362000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3204000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5179000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5669000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-442000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3864000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,37 +1357,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-5241000</v>
+        <v>-293000</v>
       </c>
       <c r="E29" s="3">
-        <v>-1828000</v>
+        <v>-6010000</v>
       </c>
       <c r="F29" s="3">
+        <v>-2152000</v>
+      </c>
+      <c r="G29" s="3">
         <v>-472000</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-5895000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1913000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1421,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,66 +1453,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>216000</v>
+        <v>-41000</v>
       </c>
       <c r="E32" s="3">
-        <v>171000</v>
+        <v>27000</v>
       </c>
       <c r="F32" s="3">
+        <v>130000</v>
+      </c>
+      <c r="G32" s="3">
         <v>400000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>72000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>175000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>41000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>140000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3705000</v>
+        <v>3764000</v>
       </c>
       <c r="E33" s="3">
+        <v>-1231000</v>
+      </c>
+      <c r="F33" s="3">
         <v>2015000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5890000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3204000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-716000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5669000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2355000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1549,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3705000</v>
+        <v>3764000</v>
       </c>
       <c r="E35" s="3">
+        <v>-1231000</v>
+      </c>
+      <c r="F35" s="3">
         <v>2015000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5890000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3204000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-716000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5669000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2355000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1634,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,269 +1648,297 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15575000</v>
+      </c>
+      <c r="E41" s="3">
         <v>15871000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12322000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14153000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13987000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10319000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10626000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6753000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6130000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E42" s="3">
         <v>200000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>51000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>72000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>103000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>121000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>75000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>83000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6487000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3202000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3639000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3031000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3781000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3722000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3579000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4979000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6214000</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3972000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3764000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4020000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3673000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3499000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3411000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3914000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4292000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6149000</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E45" s="3">
         <v>12093000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>111000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>127000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>131000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>141000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>189000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>262000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26407000</v>
+      </c>
+      <c r="E46" s="3">
         <v>35130000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20143000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21056000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21501000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>17714000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>18383000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16369000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18901000</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3663000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3652000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4276000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4532000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4460000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6122000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5054000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6370000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7416000</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>66673000</v>
+      </c>
+      <c r="E48" s="3">
         <v>67182000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>78849000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>80497000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>82170000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>83975000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>85439000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>94072000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>108771000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>718000</v>
+      </c>
+      <c r="E49" s="3">
         <v>778000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3873000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3968000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4030000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4119000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4214000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4292000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5289000</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +1966,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,37 +1998,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4953000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5251000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5441000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6953000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7374000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7023000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5579000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3477000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5704000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2062,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>102414000</v>
+      </c>
+      <c r="E54" s="3">
         <v>111993000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>112582000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>117006000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>119535000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>118953000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>118669000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>124580000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>146081000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2110,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,182 +2124,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5616000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5977000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5999000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5551000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5128000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5389000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5678000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7389000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8338000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1527000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2736000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2033000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1241000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3374000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4653000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4071000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3201000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2459000</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3225000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5276000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3498000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4574000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3497000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2298000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1889000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2263000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2553000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10368000</v>
+      </c>
+      <c r="E60" s="3">
         <v>13989000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11530000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11366000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11999000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12340000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11638000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12853000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13350000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23938000</v>
+      </c>
+      <c r="E61" s="3">
         <v>24069000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>25700000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>29233000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>30670000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>31768000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>32476000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>27969000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28610000</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12792000</v>
+      </c>
+      <c r="E62" s="3">
         <v>13265000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13191000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13681000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14441000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14774000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13125000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13213000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17871000</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2346,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2378,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2410,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>51767000</v>
+      </c>
+      <c r="E66" s="3">
         <v>56401000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>55605000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>59748000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>62886000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>64663000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>62883000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>59812000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>66236000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2458,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2488,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,8 +2520,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2350,8 +2552,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2584,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>48495000</v>
+      </c>
+      <c r="E72" s="3">
         <v>53354000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>54742000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>55018000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>54417000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>52080000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>53585000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>62601000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>77832000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2648,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2680,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2712,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50647000</v>
+      </c>
+      <c r="E76" s="3">
         <v>55592000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>56977000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>57258000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>56649000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>54290000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>55786000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>64768000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>79845000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2776,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3705000</v>
+        <v>3764000</v>
       </c>
       <c r="E81" s="3">
+        <v>-1231000</v>
+      </c>
+      <c r="F81" s="3">
         <v>2015000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5890000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3204000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-716000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5669000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2355000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,37 +2861,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6288000</v>
+        <v>2888000</v>
       </c>
       <c r="E83" s="3">
+        <v>2251000</v>
+      </c>
+      <c r="F83" s="3">
         <v>4037000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7719000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3800000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4059000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4602000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4757000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4401000</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +2923,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +2955,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +2987,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +3019,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3051,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18461000</v>
+        <v>7274000</v>
       </c>
       <c r="E89" s="3">
+        <v>11118000</v>
+      </c>
+      <c r="F89" s="3">
         <v>7343000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>16804000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7697000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5365000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5260000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8873000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10423000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,37 +3099,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5853000</v>
+        <v>-397000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2877000</v>
+        <v>-410000</v>
       </c>
       <c r="F91" s="3">
-        <v>-9883000</v>
+        <v>-464000</v>
       </c>
       <c r="G91" s="3">
-        <v>-2727000</v>
+        <v>-966000</v>
       </c>
       <c r="H91" s="3">
-        <v>-9800000</v>
+        <v>-439000</v>
       </c>
       <c r="I91" s="3">
-        <v>-4370000</v>
+        <v>-342000</v>
       </c>
       <c r="J91" s="3">
+        <v>-410000</v>
+      </c>
+      <c r="K91" s="3">
         <v>807000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13668000</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3161,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +3193,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5921000</v>
+        <v>3330000</v>
       </c>
       <c r="E94" s="3">
+        <v>-3475000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2446000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4161000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1922000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3207000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4038000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6837000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6317000</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,37 +3241,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5220000</v>
+        <v>-3411000</v>
       </c>
       <c r="E96" s="3">
+        <v>-2944000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-2276000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2921000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-748000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-864000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3266000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3289000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3209000</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3303,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3335,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,91 +3367,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10891000</v>
+        <v>-11098000</v>
       </c>
       <c r="E100" s="3">
+        <v>-3832000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-7059000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9133000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2124000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2454000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2738000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1517000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6759000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>56000</v>
+        <v>-220000</v>
       </c>
       <c r="E101" s="3">
+        <v>-275000</v>
+      </c>
+      <c r="F101" s="3">
         <v>331000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>322000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-10000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>9000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-24000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1705000</v>
+        <v>-714000</v>
       </c>
       <c r="E102" s="3">
+        <v>3536000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1831000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3832000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3652000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-306000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3969000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>495000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2634000</v>
       </c>
     </row>

--- a/Financials/Quarterly/BHP_QTR_FIN.xlsx
+++ b/Financials/Quarterly/BHP_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AD0018-2898-4758-9A99-B1BA1CBF7B0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="BHP" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>BHP</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,96 +654,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>23546000</v>
+      </c>
+      <c r="E8" s="3">
         <v>20742000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22603000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20526000</v>
       </c>
-      <c r="G8" s="3">
-        <v>36135000</v>
-      </c>
       <c r="H8" s="3">
+        <v>16944000</v>
+      </c>
+      <c r="I8" s="3">
         <v>18796000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12855000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15712000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19776000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>24860000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -809,8 +780,11 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -841,8 +815,11 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,8 +832,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,8 +865,11 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -919,8 +900,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -951,8 +935,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -983,8 +970,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,72 +984,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14766000</v>
+      </c>
+      <c r="E17" s="3">
         <v>13409000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13772000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13361000</v>
       </c>
-      <c r="G17" s="3">
-        <v>23581000</v>
-      </c>
       <c r="H17" s="3">
+        <v>10447000</v>
+      </c>
+      <c r="I17" s="3">
         <v>12739000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3021000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>22742000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19036000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16930000</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8780000</v>
+      </c>
+      <c r="E18" s="3">
         <v>7333000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8831000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7165000</v>
       </c>
-      <c r="G18" s="3">
-        <v>12554000</v>
-      </c>
       <c r="H18" s="3">
+        <v>6497000</v>
+      </c>
+      <c r="I18" s="3">
         <v>6057000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9834000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7030000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>740000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7930000</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1072,168 +1069,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E20" s="3">
         <v>41000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-27000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-130000</v>
       </c>
-      <c r="G20" s="3">
-        <v>-400000</v>
-      </c>
       <c r="H20" s="3">
+        <v>-295000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-72000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-175000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-41000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-140000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-71000</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11711000</v>
+      </c>
+      <c r="E21" s="3">
         <v>10262000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11886000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10241000</v>
       </c>
-      <c r="G21" s="3">
-        <v>18338000</v>
-      </c>
       <c r="H21" s="3">
+        <v>8586000</v>
+      </c>
+      <c r="I21" s="3">
         <v>9785000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>11267000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2469000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5357000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12260000</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>521000</v>
+      </c>
+      <c r="E22" s="3">
         <v>574000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>560000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>528000</v>
       </c>
-      <c r="G22" s="3">
-        <v>1017000</v>
-      </c>
       <c r="H22" s="3">
+        <v>545000</v>
+      </c>
+      <c r="I22" s="3">
         <v>505000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>409000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>388000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>240000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>163000</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8249000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6800000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8244000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6507000</v>
       </c>
-      <c r="G23" s="3">
-        <v>11137000</v>
-      </c>
       <c r="H23" s="3">
+        <v>5657000</v>
+      </c>
+      <c r="I23" s="3">
         <v>5480000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9250000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7459000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>360000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7696000</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3171000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2358000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2906000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1781000</v>
       </c>
-      <c r="G24" s="3">
-        <v>4443000</v>
-      </c>
       <c r="H24" s="3">
+        <v>2415000</v>
+      </c>
+      <c r="I24" s="3">
         <v>2028000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3829000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1726000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>362000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3304000</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1264,72 +1277,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5078000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4442000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5338000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4726000</v>
       </c>
-      <c r="G26" s="3">
-        <v>6694000</v>
-      </c>
       <c r="H26" s="3">
+        <v>3242000</v>
+      </c>
+      <c r="I26" s="3">
         <v>3452000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5421000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5733000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4392000</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4584000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4057000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4779000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4167000</v>
       </c>
-      <c r="G27" s="3">
-        <v>6362000</v>
-      </c>
       <c r="H27" s="3">
+        <v>3158000</v>
+      </c>
+      <c r="I27" s="3">
         <v>3204000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5179000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5669000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-442000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3864000</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1360,40 +1382,46 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-293000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-6010000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-2152000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-472000</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-5895000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-1913000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>401000</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1424,8 +1452,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1456,72 +1487,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-41000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>27000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>130000</v>
       </c>
-      <c r="G32" s="3">
-        <v>400000</v>
-      </c>
       <c r="H32" s="3">
+        <v>295000</v>
+      </c>
+      <c r="I32" s="3">
         <v>72000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>175000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>41000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>140000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>71000</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4542000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3764000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1231000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2015000</v>
       </c>
-      <c r="G33" s="3">
-        <v>5890000</v>
-      </c>
       <c r="H33" s="3">
+        <v>2686000</v>
+      </c>
+      <c r="I33" s="3">
         <v>3204000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-716000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5669000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2355000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1552,77 +1592,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4542000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3764000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1231000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2015000</v>
       </c>
-      <c r="G35" s="3">
-        <v>5890000</v>
-      </c>
       <c r="H35" s="3">
+        <v>2686000</v>
+      </c>
+      <c r="I35" s="3">
         <v>3204000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-716000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5669000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2355000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1635,8 +1684,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1649,296 +1699,324 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15613000</v>
+      </c>
+      <c r="E41" s="3">
         <v>15575000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15871000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12322000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14153000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13987000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10319000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10626000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6753000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6130000</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E42" s="3">
         <v>237000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>200000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>51000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>72000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>103000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>121000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>75000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>83000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>81000</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3586000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6487000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3202000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3639000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3031000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3781000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3722000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3579000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4979000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6214000</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3840000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3972000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3764000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4020000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3673000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3499000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3411000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3914000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4292000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6149000</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E45" s="3">
         <v>136000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12093000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>111000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>127000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>131000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>141000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>189000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>262000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>327000</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23373000</v>
+      </c>
+      <c r="E46" s="3">
         <v>26407000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>35130000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20143000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21056000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21501000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17714000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>18383000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16369000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18901000</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4185000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3663000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3652000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4276000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4532000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4460000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6122000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5054000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6370000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7416000</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>68041000</v>
+      </c>
+      <c r="E48" s="3">
         <v>66673000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>67182000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>78849000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>80497000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>82170000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>83975000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>85439000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>94072000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>108771000</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>675000</v>
+      </c>
+      <c r="E49" s="3">
         <v>718000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>778000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3873000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3968000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4030000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4119000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4214000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4292000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5289000</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1969,8 +2047,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2001,40 +2082,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4587000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4953000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5251000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5441000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6953000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7374000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7023000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5579000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3477000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5704000</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2065,40 +2152,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100861000</v>
+      </c>
+      <c r="E54" s="3">
         <v>102414000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>111993000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>112582000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>117006000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>119535000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>118953000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>118669000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>124580000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>146081000</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2111,8 +2204,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2125,200 +2219,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6717000</v>
+      </c>
+      <c r="E57" s="3">
         <v>5616000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5977000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5999000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5551000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5128000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5389000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5678000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7389000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8338000</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1661000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1527000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2736000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2033000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1241000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3374000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4653000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4071000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3201000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2459000</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3961000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3225000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5276000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3498000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4574000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3497000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2298000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1889000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2263000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2553000</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12339000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10368000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13989000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11530000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11366000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11999000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12340000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11638000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12853000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13350000</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23167000</v>
+      </c>
+      <c r="E61" s="3">
         <v>23938000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>24069000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>25700000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>29233000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>30670000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>31768000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>32476000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>27969000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28610000</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13531000</v>
+      </c>
+      <c r="E62" s="3">
         <v>12792000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13265000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13191000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13681000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14441000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14774000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13125000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13213000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17871000</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2349,8 +2462,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2381,8 +2497,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2413,40 +2532,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>53621000</v>
+      </c>
+      <c r="E66" s="3">
         <v>51767000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>56401000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>55605000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>59748000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>62886000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>64663000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>62883000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>59812000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>66236000</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2459,8 +2584,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2491,8 +2617,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2523,8 +2652,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2555,8 +2687,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2587,40 +2722,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>45104000</v>
+      </c>
+      <c r="E72" s="3">
         <v>48495000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>53354000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>54742000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>55018000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>54417000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>52080000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>53585000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>62601000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>77832000</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2651,8 +2792,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2683,8 +2827,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2715,40 +2862,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47240000</v>
+      </c>
+      <c r="E76" s="3">
         <v>50647000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>55592000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>56977000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>57258000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>56649000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>54290000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>55786000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>64768000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>79845000</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2779,77 +2932,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4542000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3764000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1231000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2015000</v>
       </c>
-      <c r="G81" s="3">
-        <v>5890000</v>
-      </c>
       <c r="H81" s="3">
+        <v>2686000</v>
+      </c>
+      <c r="I81" s="3">
         <v>3204000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-716000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5669000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2355000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4265000</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2862,40 +3024,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2941000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2888000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2251000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4037000</v>
       </c>
-      <c r="G83" s="3">
-        <v>7719000</v>
-      </c>
       <c r="H83" s="3">
+        <v>3919000</v>
+      </c>
+      <c r="I83" s="3">
         <v>3800000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4059000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4602000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4757000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4401000</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2926,8 +3092,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2958,8 +3127,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2990,8 +3162,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3022,8 +3197,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3054,40 +3232,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10597000</v>
+      </c>
+      <c r="E89" s="3">
         <v>7274000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11118000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7343000</v>
       </c>
-      <c r="G89" s="3">
-        <v>16804000</v>
-      </c>
       <c r="H89" s="3">
+        <v>9107000</v>
+      </c>
+      <c r="I89" s="3">
         <v>7697000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5365000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5260000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8873000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10423000</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3100,40 +3284,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-476000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-397000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-410000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-464000</v>
       </c>
-      <c r="G91" s="3">
-        <v>-966000</v>
-      </c>
       <c r="H91" s="3">
+        <v>-527000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-439000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-342000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-410000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>807000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13668000</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3164,8 +3352,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3196,40 +3387,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-723000</v>
+      </c>
+      <c r="E94" s="3">
         <v>3330000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3475000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2446000</v>
       </c>
-      <c r="G94" s="3">
-        <v>-4161000</v>
-      </c>
       <c r="H94" s="3">
+        <v>-2239000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1922000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3207000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4038000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6837000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6317000</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3242,40 +3439,44 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-7984000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3411000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-2944000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-2276000</v>
       </c>
-      <c r="G96" s="3">
-        <v>-2921000</v>
-      </c>
       <c r="H96" s="3">
+        <v>-2173000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-748000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-864000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3266000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3289000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3209000</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3306,8 +3507,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3338,8 +3542,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3370,100 +3577,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9430000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11098000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3832000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7059000</v>
       </c>
-      <c r="G100" s="3">
-        <v>-9133000</v>
-      </c>
       <c r="H100" s="3">
+        <v>-7009000</v>
+      </c>
+      <c r="I100" s="3">
         <v>-2124000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2454000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2738000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1517000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6759000</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-220000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-275000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>331000</v>
       </c>
-      <c r="G101" s="3">
-        <v>322000</v>
-      </c>
       <c r="H101" s="3">
+        <v>321000</v>
+      </c>
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-10000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>9000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-24000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>19000</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>494000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-714000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3536000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1831000</v>
       </c>
-      <c r="G102" s="3">
-        <v>3832000</v>
-      </c>
       <c r="H102" s="3">
+        <v>180000</v>
+      </c>
+      <c r="I102" s="3">
         <v>3652000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-306000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3969000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>495000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2634000</v>
       </c>
     </row>
